--- a/biology/Zoologie/Graphium_cloanthus/Graphium_cloanthus.xlsx
+++ b/biology/Zoologie/Graphium_cloanthus/Graphium_cloanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Graphium cloanthus est une  espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae, du genre Graphium, du sous-genre Graphium (Graphium).
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom officiel : Graphium (Graphium) cloanthus, décrit par le naturaliste anglais John Obadiah Westwood en 1841.
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe pour ce genre trois sous-espèces :
 Graphium (Graphium) cloanthus clymenus (Leech)
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La différence entre les deux sexes est peu marquée.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Papillon de l'écozone Australasienne et Indomalaise. La distribution comprend les Célèbes, Bornéo, Sumatra et les Philippines et s’étend à partir du sud de la Chine au nord de l'Inde.
 </t>
@@ -637,7 +657,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ils se nourrissent de :
 Lauraceae :
